--- a/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
+++ b/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F87EF3-6251-47D6-A173-CD9CB261B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Сложение" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Квадратный корень" sheetId="5" r:id="rId5"/>
     <sheet name="Возведение в квадрат" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Размер массива</t>
   </si>
@@ -218,183 +217,9 @@
     <t>0.8973383903503418</t>
   </si>
   <si>
-    <t>0.00498652458190918</t>
-  </si>
-  <si>
-    <t>2.930110949908375e-26</t>
-  </si>
-  <si>
-    <t>0.005014657974243164</t>
-  </si>
-  <si>
-    <t>2.2570231124348695e-23</t>
-  </si>
-  <si>
-    <t>1, 10000000]</t>
-  </si>
-  <si>
-    <t>0.005013465881347656</t>
-  </si>
-  <si>
-    <t>0.0010008811950683594</t>
-  </si>
-  <si>
-    <t>6.106855698492525e+122</t>
-  </si>
-  <si>
-    <t>0.04787087440490723</t>
-  </si>
-  <si>
-    <t>0.0059871673583984375</t>
-  </si>
-  <si>
-    <t>1.1775755152605206e+114</t>
-  </si>
-  <si>
-    <t>0.04690384864807129</t>
-  </si>
-  <si>
-    <t>0.005984306335449219</t>
-  </si>
-  <si>
-    <t>2.8754406331746385e-69</t>
-  </si>
-  <si>
-    <t>[1, 100000000]</t>
-  </si>
-  <si>
-    <t>0.04945993423461914</t>
-  </si>
-  <si>
-    <t>0.004958629608154297</t>
-  </si>
-  <si>
-    <t>5.533614543185697e+46</t>
-  </si>
-  <si>
-    <t>0.5038347244262695</t>
-  </si>
-  <si>
-    <t>0.05086541175842285</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>0.46126222610473633</t>
-  </si>
-  <si>
-    <t>0.05191946029663086</t>
-  </si>
-  <si>
-    <t>0.48113250732421875</t>
-  </si>
-  <si>
-    <t>0.04929852485656738</t>
-  </si>
-  <si>
-    <t>4.623150587081909</t>
-  </si>
-  <si>
-    <t>0.4911789894104004</t>
-  </si>
-  <si>
-    <t>5.213281154632568</t>
-  </si>
-  <si>
-    <t>0.4886932373046875</t>
-  </si>
-  <si>
-    <t>5.048110485076904</t>
-  </si>
-  <si>
-    <t>0.4798734188079834</t>
-  </si>
-  <si>
-    <t>0.005013227462768555</t>
-  </si>
-  <si>
-    <t>3.927061562076852e+48</t>
-  </si>
-  <si>
-    <t>0.004975557327270508</t>
-  </si>
-  <si>
     <t>0.0009968280792236328</t>
   </si>
   <si>
-    <t>2.0355154631747654e-141</t>
-  </si>
-  <si>
-    <t>0.005014181137084961</t>
-  </si>
-  <si>
-    <t>1308567836452413.8</t>
-  </si>
-  <si>
-    <t>0.04887247085571289</t>
-  </si>
-  <si>
-    <t>0.004982948303222656</t>
-  </si>
-  <si>
-    <t>7.7651971338898e-150</t>
-  </si>
-  <si>
-    <t>0.050893306732177734</t>
-  </si>
-  <si>
-    <t>0.004956960678100586</t>
-  </si>
-  <si>
-    <t>7.411763079344341e+119</t>
-  </si>
-  <si>
-    <t>0.04889631271362305</t>
-  </si>
-  <si>
-    <t>0.004986286163330078</t>
-  </si>
-  <si>
-    <t>5.787608884127189e+137</t>
-  </si>
-  <si>
-    <t>0.48031163215637207</t>
-  </si>
-  <si>
-    <t>0.05186295509338379</t>
-  </si>
-  <si>
-    <t>0.5206375122070312</t>
-  </si>
-  <si>
-    <t>0.04886984825134277</t>
-  </si>
-  <si>
-    <t>0.4927527904510498</t>
-  </si>
-  <si>
-    <t>0.04787325859069824</t>
-  </si>
-  <si>
-    <t>4.778504133224487</t>
-  </si>
-  <si>
-    <t>0.5325462818145752</t>
-  </si>
-  <si>
-    <t>5.192084312438965</t>
-  </si>
-  <si>
-    <t>0.4991748332977295</t>
-  </si>
-  <si>
-    <t>5.007464408874512</t>
-  </si>
-  <si>
-    <t>0.49172043800354004</t>
-  </si>
-  <si>
     <t>0.022966384887695312</t>
   </si>
   <si>
@@ -513,12 +338,18 @@
   </si>
   <si>
     <t>1.339979648590088</t>
+  </si>
+  <si>
+    <t>НОРМАЛЬНЫЕ</t>
+  </si>
+  <si>
+    <t>ДИАПАЗОНЫ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,8 +440,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,16 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,11 +748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,207 +764,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>50334413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>24977084</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>200242718</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>100000</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>704831487</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>50139002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>-4376905</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1000000</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>43339980</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>705144951</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <v>4999669</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>10000000</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>1763498732</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>-13077431</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>-673232833</v>
       </c>
     </row>
@@ -1146,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938D43C7-C94B-4540-B2CF-175E0FF152A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,207 +996,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>-49578270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>825342</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>3703750</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>100000</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>-712525378</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>6616539</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>-1337671844</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1000000</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>-206078437</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>-1099620878</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <v>499978</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>10000000</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>-1859888305</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>-15623251</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>4998100</v>
       </c>
     </row>
@@ -1379,11 +1213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949434C5-1FD9-4D61-8B7A-9C78ED3A8F47}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,208 +1229,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>100000</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1000000</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>10000000</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>82</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1611,11 +1359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8945-B881-4875-9B7A-EE5D21C09F65}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:E13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,208 +1375,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>100000</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1843,11 +1505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ED659D-6C1D-4573-9166-F13AAE13A236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,183 +1521,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>100000</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1000000</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10000000</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2049,11 +1711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A228FA-F4ED-46D9-A742-1EF856B3C041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,169 +1726,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>160</v>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
+++ b/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Сложение" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>Размер массива</t>
   </si>
@@ -44,300 +44,6 @@
   </si>
   <si>
     <t>Полученное значение</t>
-  </si>
-  <si>
-    <t>[1, 10000]</t>
-  </si>
-  <si>
-    <t>0.10471868515014648</t>
-  </si>
-  <si>
-    <t>0.0009975433349609375</t>
-  </si>
-  <si>
-    <t>[1, 5000]</t>
-  </si>
-  <si>
-    <t>0.0009996891021728516</t>
-  </si>
-  <si>
-    <t>0.001024007797241211</t>
-  </si>
-  <si>
-    <t>[1, 40000]</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.0009980201721191406</t>
-  </si>
-  <si>
-    <t>[1, 100000]</t>
-  </si>
-  <si>
-    <t>0.0010242462158203125</t>
-  </si>
-  <si>
-    <t>0.013934612274169922</t>
-  </si>
-  <si>
-    <t>[1, 1000]</t>
-  </si>
-  <si>
-    <t>0.0009982585906982422</t>
-  </si>
-  <si>
-    <t>0.008006095886230469</t>
-  </si>
-  <si>
-    <t>[-10000, 10000]</t>
-  </si>
-  <si>
-    <t>0.002025127410888672</t>
-  </si>
-  <si>
-    <t>0.008977890014648438</t>
-  </si>
-  <si>
-    <t>[-100000, 100000]</t>
-  </si>
-  <si>
-    <t>0.030114173889160156</t>
-  </si>
-  <si>
-    <t>0.09078550338745117</t>
-  </si>
-  <si>
-    <t>0.01299285888671875</t>
-  </si>
-  <si>
-    <t>0.09571623802185059</t>
-  </si>
-  <si>
-    <t>[1, 10]</t>
-  </si>
-  <si>
-    <t>0.01499032974243164</t>
-  </si>
-  <si>
-    <t>0.09272050857543945</t>
-  </si>
-  <si>
-    <t>0.0807962417602539</t>
-  </si>
-  <si>
-    <t>0.8754172325134277</t>
-  </si>
-  <si>
-    <t>0.12616729736328125</t>
-  </si>
-  <si>
-    <t>0.876807689666748</t>
-  </si>
-  <si>
-    <t>[1, 10000000]</t>
-  </si>
-  <si>
-    <t>0.13024616241455078</t>
-  </si>
-  <si>
-    <t>0.8860292434692383</t>
-  </si>
-  <si>
-    <t>0.0010259151458740234</t>
-  </si>
-  <si>
-    <t>0.0010223388671875</t>
-  </si>
-  <si>
-    <t>0.0009965896606445312</t>
-  </si>
-  <si>
-    <t>0.008976221084594727</t>
-  </si>
-  <si>
-    <t>0.010000944137573242</t>
-  </si>
-  <si>
-    <t>[-10000000, 10000000]</t>
-  </si>
-  <si>
-    <t>0.0020215511322021484</t>
-  </si>
-  <si>
-    <t>0.007978439331054688</t>
-  </si>
-  <si>
-    <t>[-1000, 10000]</t>
-  </si>
-  <si>
-    <t>0.03499174118041992</t>
-  </si>
-  <si>
-    <t>0.09522342681884766</t>
-  </si>
-  <si>
-    <t>[-2, 10000000]</t>
-  </si>
-  <si>
-    <t>0.03391098976135254</t>
-  </si>
-  <si>
-    <t>0.09624671936035156</t>
-  </si>
-  <si>
-    <t>[-1, 1]</t>
-  </si>
-  <si>
-    <t>0.003990650177001953</t>
-  </si>
-  <si>
-    <t>0.08975982666015625</t>
-  </si>
-  <si>
-    <t>[1, 1000000]</t>
-  </si>
-  <si>
-    <t>0.06635522842407227</t>
-  </si>
-  <si>
-    <t>0.9000627994537354</t>
-  </si>
-  <si>
-    <t>0.12769365310668945</t>
-  </si>
-  <si>
-    <t>0.8936364650726318</t>
-  </si>
-  <si>
-    <t>0.03792548179626465</t>
-  </si>
-  <si>
-    <t>0.8973383903503418</t>
-  </si>
-  <si>
-    <t>0.0009968280792236328</t>
-  </si>
-  <si>
-    <t>0.022966384887695312</t>
-  </si>
-  <si>
-    <t>0.015928983688354492</t>
-  </si>
-  <si>
-    <t>0.015986204147338867</t>
-  </si>
-  <si>
-    <t>0.01495981216430664</t>
-  </si>
-  <si>
-    <t>0.1825423240661621</t>
-  </si>
-  <si>
-    <t>0.0010249614715576172</t>
-  </si>
-  <si>
-    <t>0.1565847396850586</t>
-  </si>
-  <si>
-    <t>0.0009987354278564453</t>
-  </si>
-  <si>
-    <t>0.16330909729003906</t>
-  </si>
-  <si>
-    <t>0.00401759147644043</t>
-  </si>
-  <si>
-    <t>1.5509920120239258</t>
-  </si>
-  <si>
-    <t>0.011995315551757812</t>
-  </si>
-  <si>
-    <t>1.5276429653167725</t>
-  </si>
-  <si>
-    <t>0.03091716766357422</t>
-  </si>
-  <si>
-    <t>1.5796613693237305</t>
-  </si>
-  <si>
-    <t>0.04091787338256836</t>
-  </si>
-  <si>
-    <t>15.122566223144531</t>
-  </si>
-  <si>
-    <t>0.12566041946411133</t>
-  </si>
-  <si>
-    <t>14.611841440200806</t>
-  </si>
-  <si>
-    <t>0.08078980445861816</t>
-  </si>
-  <si>
-    <t>14.01244592666626</t>
-  </si>
-  <si>
-    <t>0.02096700668334961</t>
-  </si>
-  <si>
-    <t>0.0009992122650146484</t>
-  </si>
-  <si>
-    <t>0.000993490219116211</t>
-  </si>
-  <si>
-    <t>0.013989686965942383</t>
-  </si>
-  <si>
-    <t>0.02200031280517578</t>
-  </si>
-  <si>
-    <t>0.012970685958862305</t>
-  </si>
-  <si>
-    <t>0.0010247230529785156</t>
-  </si>
-  <si>
-    <t>0.011968612670898438</t>
-  </si>
-  <si>
-    <t>0.003992319107055664</t>
-  </si>
-  <si>
-    <t>0.12764334678649902</t>
-  </si>
-  <si>
-    <t>0.012993335723876953</t>
-  </si>
-  <si>
-    <t>0.12865829467773438</t>
-  </si>
-  <si>
-    <t>0.12822628021240234</t>
-  </si>
-  <si>
-    <t>0.04092001914978027</t>
-  </si>
-  <si>
-    <t>1.2713184356689453</t>
-  </si>
-  <si>
-    <t>0.12765836715698242</t>
-  </si>
-  <si>
-    <t>1.3038594722747803</t>
-  </si>
-  <si>
-    <t>0.08081173896789551</t>
-  </si>
-  <si>
-    <t>1.339979648590088</t>
   </si>
   <si>
     <t>НОРМАЛЬНЫЕ</t>
@@ -454,6 +160,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,9 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,192 +487,96 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50334413</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24977084</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>200242718</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>704831487</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2">
-        <v>50139002</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-4376905</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43339980</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>705144951</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4999669</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10000000</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1763498732</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-13077431</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-673232833</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -984,7 +594,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,192 +623,96 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-49578270</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
-        <v>825342</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3703750</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-712525378</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6616539</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1337671844</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-206078437</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-1099620878</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2">
-        <v>499978</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10000000</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1859888305</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-15623251</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4998100</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1246,7 +760,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
       <c r="B2" s="2"/>
@@ -1255,21 +769,21 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
       <c r="B5" s="2"/>
@@ -1278,21 +792,21 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
       <c r="B8" s="2"/>
@@ -1301,21 +815,21 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10000000</v>
       </c>
       <c r="B11" s="2"/>
@@ -1324,27 +838,27 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>103</v>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>104</v>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +906,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
       <c r="B2" s="2"/>
@@ -1401,21 +915,21 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
       <c r="B5" s="2"/>
@@ -1424,21 +938,21 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
       <c r="B8" s="2"/>
@@ -1447,21 +961,21 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10000000</v>
       </c>
       <c r="B11" s="2"/>
@@ -1470,27 +984,27 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>103</v>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>104</v>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1508,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,167 +1050,95 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10000000</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="4"/>
     </row>
   </sheetData>
@@ -1715,7 +1157,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,156 +1182,84 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1000000</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10000000</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
+++ b/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Влад/Отчёт.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53EF10-DF68-4100-9847-E690541DFEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Сложение" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="243">
   <si>
     <t>Размер массива</t>
   </si>
@@ -633,12 +632,138 @@
   </si>
   <si>
     <t>1.8311033248901367</t>
+  </si>
+  <si>
+    <t>1.5978639125823975</t>
+  </si>
+  <si>
+    <t>13.324624061584473</t>
+  </si>
+  <si>
+    <t>0.9959471225738525</t>
+  </si>
+  <si>
+    <t>12.915722846984863</t>
+  </si>
+  <si>
+    <t>1.601574420928955</t>
+  </si>
+  <si>
+    <t>13.105769872665405</t>
+  </si>
+  <si>
+    <t>1.2188997268676758</t>
+  </si>
+  <si>
+    <t>15.796040773391724</t>
+  </si>
+  <si>
+    <t>549991525.1145644</t>
+  </si>
+  <si>
+    <t>1.131948471069336</t>
+  </si>
+  <si>
+    <t>16.118226051330566</t>
+  </si>
+  <si>
+    <t>5049445299.74656</t>
+  </si>
+  <si>
+    <t>1.108159065246582</t>
+  </si>
+  <si>
+    <t>15.896803617477417</t>
+  </si>
+  <si>
+    <t>-550028545.6223814</t>
+  </si>
+  <si>
+    <t>1.5115678310394287</t>
+  </si>
+  <si>
+    <t>14.128755807876587</t>
+  </si>
+  <si>
+    <t>0.9762792587280273</t>
+  </si>
+  <si>
+    <t>15.095428705215454</t>
+  </si>
+  <si>
+    <t>1.5490763187408447</t>
+  </si>
+  <si>
+    <t>13.822619438171387</t>
+  </si>
+  <si>
+    <t>1.232201099395752</t>
+  </si>
+  <si>
+    <t>17.241605281829834</t>
+  </si>
+  <si>
+    <t>-550011474.2602298</t>
+  </si>
+  <si>
+    <t>1.0707287788391113</t>
+  </si>
+  <si>
+    <t>16.275702238082886</t>
+  </si>
+  <si>
+    <t>-5050185553.859176</t>
+  </si>
+  <si>
+    <t>1.17283296585083</t>
+  </si>
+  <si>
+    <t>16.650388717651367</t>
+  </si>
+  <si>
+    <t>549982078.0487231</t>
+  </si>
+  <si>
+    <t>1.179276943206787</t>
+  </si>
+  <si>
+    <t>25.89302086830139</t>
+  </si>
+  <si>
+    <t>1.3781154155731201</t>
+  </si>
+  <si>
+    <t>24.341729164123535</t>
+  </si>
+  <si>
+    <t>[0.9999, 1.1111]</t>
+  </si>
+  <si>
+    <t>0.012137889862060547</t>
+  </si>
+  <si>
+    <t>0.2741360664367676</t>
+  </si>
+  <si>
+    <t>[-1.1111, -0.9999]</t>
+  </si>
+  <si>
+    <t>0.012150049209594727</t>
+  </si>
+  <si>
+    <t>0.27835917472839355</t>
+  </si>
+  <si>
+    <t>0.13289427757263184</t>
+  </si>
+  <si>
+    <t>2.7887797355651855</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,7 +805,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -936,26 +1061,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -963,14 +1115,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -987,6 +1133,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,6 +1159,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,109 +1451,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>500446</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>100000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1387,10 +1563,10 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>4995889</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1400,72 +1576,72 @@
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>-599873</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>1000000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>5000337</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>1000000</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1475,10 +1651,10 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>49995625</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1488,72 +1664,72 @@
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>-6004357</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>10000000</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>49991716</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>10000000</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1563,10 +1739,10 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>499961800</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1576,40 +1752,130 @@
       <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>-60001536</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="3">
+        <v>549983565</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="4">
+        <v>754823350</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-549964113</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A11"/>
@@ -1625,109 +1891,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>-498997</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>100000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1737,10 +2003,10 @@
       <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>-5017768</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1750,72 +2016,72 @@
       <c r="J4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>599721</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>1000000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>-5000743</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>1000000</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1825,10 +2091,10 @@
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>-49988348</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,72 +2104,72 @@
       <c r="J7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>5996733</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>10000000</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>-50000303</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>10000000</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1913,10 +2179,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>-500017567</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1926,40 +2192,130 @@
       <c r="J10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>59990492</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="6" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-550001308</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-754836093</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="6">
+        <v>550034349</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A3:A5"/>
@@ -1975,20 +2331,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
@@ -1997,153 +2353,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>1000000</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>10000000</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
@@ -2152,133 +2540,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>1000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>10000</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>100000</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2286,23 +2755,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2321,243 +2790,294 @@
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>100000</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>1000000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>1000000</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>10000000</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>10000000</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="6" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A3:A5"/>
@@ -2572,23 +3092,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2607,243 +3127,291 @@
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100000</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>100000</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>1000000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>1000000</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>10000000</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>10000000</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="6" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A3:A5"/>
